--- a/割り当て台帳（留学生PC）　2022年度第後期.xlsx
+++ b/割り当て台帳（留学生PC）　2022年度第後期.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12090" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12090" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="クラススブロックの割り当て_old" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="PCの振り分け" sheetId="5" r:id="rId2"/>
+    <sheet name="PCの振り分け" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="クラススブロックの割り当て " sheetId="4" r:id="rId3"/>
     <sheet name="割り当て名簿" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -15778,7 +15778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="AY47" sqref="AY47"/>
     </sheetView>
   </sheetViews>
@@ -21236,5 +21236,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>